--- a/data/boxes.xlsx
+++ b/data/boxes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22880" yWindow="2080" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="25560" yWindow="3080" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Qty</t>
   </si>
@@ -39,13 +39,16 @@
     <t>R/P</t>
   </si>
   <si>
-    <t>10-mm</t>
-  </si>
-  <si>
     <t>Capacity</t>
   </si>
   <si>
     <t>x308</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t>9mm</t>
   </si>
 </sst>
 </file>
@@ -102,7 +105,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -110,27 +113,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,48 +479,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="3"/>
-    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="11" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
+    <row r="2" spans="1:7" s="4" customFormat="1">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -510,47 +529,73 @@
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2" si="0">D2*E2</f>
-        <v>60</v>
-      </c>
-      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>35</v>
+      </c>
+      <c r="G2" s="2">
         <f>C2*F2</f>
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G3" s="2">
+        <f>C3*F3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D4" s="2">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F3">
-        <f>D3*E3</f>
-        <v>40</v>
-      </c>
-      <c r="G3" s="3">
-        <f>C3*F3</f>
-        <v>160</v>
+      <c r="F4" s="2">
+        <f>D4*E4</f>
+        <v>30</v>
+      </c>
+      <c r="G4" s="2">
+        <f>C4*F4</f>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
